--- a/Documentos/InfoTablero.xlsx
+++ b/Documentos/InfoTablero.xlsx
@@ -660,7 +660,7 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
       </c>
       <c r="I2" s="3">
         <f ca="1">RANDBETWEEN(1000, 9999)</f>
-        <v>7673</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I24" ca="1" si="0">RANDBETWEEN(1000, 9999)</f>
-        <v>7726</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7676</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5823</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4987</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8767</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7167</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9291</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8909</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3911</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2262</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2107</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8109</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2231</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5590</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3617</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5537</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8823</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5830</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8810</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6294</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9989</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7574</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">

--- a/Documentos/InfoTablero.xlsx
+++ b/Documentos/InfoTablero.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
     <col min="10" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -725,10 +725,13 @@
       </c>
       <c r="I2" s="3">
         <f ca="1">RANDBETWEEN(1000, 9999)</f>
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4138</v>
+      </c>
+      <c r="J2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -748,11 +751,14 @@
         <v>70</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I24" ca="1" si="0">RANDBETWEEN(1000, 9999)</f>
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <f ca="1">RANDBETWEEN(1000, 9999)</f>
+        <v>7594</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -772,11 +778,11 @@
         <v>71</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I3:I24" ca="1" si="0">RANDBETWEEN(1000, 9999)</f>
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -797,10 +803,13 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9870</v>
+      </c>
+      <c r="J5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -821,10 +830,13 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1754</v>
+      </c>
+      <c r="J6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -845,10 +857,13 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2527</v>
+      </c>
+      <c r="J7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -869,10 +884,13 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+      <c r="J8">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -893,10 +911,10 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -917,10 +935,10 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -941,10 +959,10 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -965,10 +983,10 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -989,10 +1007,10 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1013,10 +1031,10 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1037,10 +1055,10 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1061,7 +1079,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6317</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1085,7 +1103,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2084</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1109,7 +1127,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7273</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1139,7 +1157,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9211</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1179,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9045</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1201,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2223</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1223,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4893</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1245,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9222</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1267,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5482</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
